--- a/statistiche/bpic11XGBoostCounterfactualsWithMax_5/_867.xlsx
+++ b/statistiche/bpic11XGBoostCounterfactualsWithMax_5/_867.xlsx
@@ -452,967 +452,967 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>387070A</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>378216A</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>370737C</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>370489S</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AC380077</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>AC10207</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>AC613000</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>AC370606</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>370407C</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>AC386002</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>AC370442</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>370707S</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>AC355401</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>376480A</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>376482S</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>AC410500</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>AC370716</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>377498A</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>AC378458</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>370111S</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>377121S</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>AC372441</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>AC378858</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>AC612000</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>370505A</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>AC370423</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>AC375075</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>AC370129</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>AC372417</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>AC370415</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>AC359999</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>AC370443</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>AC370403</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>370701S</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>339988E</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>AC337105</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>AC378607</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>370403S</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>AC379999</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC370416</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>376487.0</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>AC355111</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>339099B</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>370737Z</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>AC709999</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>370488S</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>AC387070</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>AC378449</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>370136A</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>370421S</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>372417S</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>337190C</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>AC370440</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>339995C</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>370488J</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>AC386041</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>379000A</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>AC389190</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>370401S</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>AC710290</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>375003A</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>AC370421</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>AC372439</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>378858S</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>AC356132</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC355409</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>AC370116</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>AC410100</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>AC413489</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>AC411100</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>AC337441</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>AC413461</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>389073.0</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>AC610001</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>302282.0</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>370828A</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>AC387001</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>AC389102</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>AC388130</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>AC386001</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>AC355427</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>370401C</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>372440A</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>330001B</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>AC370424</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>AC370711</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>378452S</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>370737S</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>AC10107</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>376400.0</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>AC370419</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC378546</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>370407.0</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>AC614400</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>AC375518</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>370443S</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>AC350507</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>AC390520</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>AC370135</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>370420S</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>370402S</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>375138A</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>AC378720</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>378609S</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>AC370437</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>AC337440</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>AC378808</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>AC378729</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>372454A</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>370466C</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>370480A</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>339171A</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>370715S</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>AC378149</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>AC355201</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>370715A</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>AC376406</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC337480</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>AC387090</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>376482C</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>AC387002</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>AC350503</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>AC337220</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>AC355105</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>370488T</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>378609R</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>AC380000</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>370711S</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>386001Z</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>370501.0</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>370712B</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>378609K</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>337419C</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>AC40014</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>AC686405</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>AC415100</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>AC356134</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>370488G</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>AC375004</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>AC619600</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>370465Q</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
           <t>AC419100</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>370419S</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>AC20113</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>AC372414</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>370423T</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>302211.0</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>AC375005</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>AC370111</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>AC337451</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>339488A</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>AC356133</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>302213E</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>370426S</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>AC10213</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>370442S</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>AC378403</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>AC370604</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>387042A</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>376425A</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>AC386042</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>AC339160</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>AC390183</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>AC20189</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>AC390001</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>378453S</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>AC370420</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>AC370172</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>AC378449</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>370423T</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>372417S</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>AC378403</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>AC10213</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>376482C</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>AC378431</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>370488E</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>339486E</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>AC370000</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>AC388170</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>AC370401</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>AC370402</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>370488H</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>AC390003</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>AC386902</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>AC390004</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>AC337452</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>AC339956</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>AC710170</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>370504A</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>AC370701</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>376467E</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>AC390550</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>AC378452</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>AC376406</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>AC370423</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>387042A</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>AC372441</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>AC390520</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>AC372439</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>AC378458</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>AC40016</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
         <is>
           <t>AC393628</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>370504A</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>370712B</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>387070A</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>AC370000</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>AC40014</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>AC415100</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>AC337480</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>AC410100</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>AC337440</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>372454A</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>AC390001</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>AC337220</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>AC389102</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>AC378858</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>370737C</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>376467E</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>370488G</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>AC386041</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>370737S</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>AC386902</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>370421S</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>AC710170</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>AC390004</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>372440A</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>370828A</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>AC386001</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>370715A</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>330001B</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>386001Z</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>378609R</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>AC355201</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>AC410500</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC386002</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>AC10307</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>378453A</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
         <is>
           <t>AC10113</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>AC370606</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>370465Q</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>370420S</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>376487.0</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>389073.0</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>AC380077</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>AC378546</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>AC370424</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC411100</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>370401S</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>339988E</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>AC378607</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>376482S</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>370419S</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>370488H</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>376425A</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>AC614400</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>378216A</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>AC387070</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>AC370129</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>AC375075</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>AC370443</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>AC378431</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>377498A</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC610001</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>AC390183</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>AC370416</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>337190C</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>370111S</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>AC339956</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>302213E</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>AC355105</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>AC10207</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>302211.0</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC375005</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>370480A</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>AC355401</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>AC390550</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>AC370135</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>370488J</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>AC355427</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>378609S</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>AC387001</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>AC413461</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>AC337452</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>AC413489</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>AC389190</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>AC356132</t>
-        </is>
-      </c>
-      <c r="CX1" s="1" t="inlineStr">
-        <is>
-          <t>339995C</t>
-        </is>
-      </c>
-      <c r="CY1" s="1" t="inlineStr">
-        <is>
-          <t>AC370420</t>
-        </is>
-      </c>
-      <c r="CZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC379999</t>
-        </is>
-      </c>
-      <c r="DA1" s="1" t="inlineStr">
-        <is>
-          <t>AC337105</t>
-        </is>
-      </c>
-      <c r="DB1" s="1" t="inlineStr">
-        <is>
-          <t>339486E</t>
-        </is>
-      </c>
-      <c r="DC1" s="1" t="inlineStr">
-        <is>
-          <t>AC378808</t>
-        </is>
-      </c>
-      <c r="DD1" s="1" t="inlineStr">
-        <is>
-          <t>370402S</t>
-        </is>
-      </c>
-      <c r="DE1" s="1" t="inlineStr">
-        <is>
-          <t>370442S</t>
-        </is>
-      </c>
-      <c r="DF1" s="1" t="inlineStr">
-        <is>
-          <t>AC370716</t>
-        </is>
-      </c>
-      <c r="DG1" s="1" t="inlineStr">
-        <is>
-          <t>AC337441</t>
-        </is>
-      </c>
-      <c r="DH1" s="1" t="inlineStr">
-        <is>
-          <t>AC356133</t>
-        </is>
-      </c>
-      <c r="DI1" s="1" t="inlineStr">
-        <is>
-          <t>AC359999</t>
-        </is>
-      </c>
-      <c r="DJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC370401</t>
-        </is>
-      </c>
-      <c r="DK1" s="1" t="inlineStr">
-        <is>
-          <t>AC372414</t>
-        </is>
-      </c>
-      <c r="DL1" s="1" t="inlineStr">
-        <is>
-          <t>AC370419</t>
-        </is>
-      </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>370701S</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
-        <is>
-          <t>AC378149</t>
-        </is>
-      </c>
-      <c r="DO1" s="1" t="inlineStr">
-        <is>
-          <t>370715S</t>
-        </is>
-      </c>
-      <c r="DP1" s="1" t="inlineStr">
-        <is>
-          <t>AC370415</t>
-        </is>
-      </c>
-      <c r="DQ1" s="1" t="inlineStr">
-        <is>
-          <t>AC378729</t>
-        </is>
-      </c>
-      <c r="DR1" s="1" t="inlineStr">
-        <is>
-          <t>AC380000</t>
-        </is>
-      </c>
-      <c r="DS1" s="1" t="inlineStr">
-        <is>
-          <t>302282.0</t>
-        </is>
-      </c>
-      <c r="DT1" s="1" t="inlineStr">
-        <is>
-          <t>378452S</t>
-        </is>
-      </c>
-      <c r="DU1" s="1" t="inlineStr">
-        <is>
-          <t>AC20189</t>
-        </is>
-      </c>
-      <c r="DV1" s="1" t="inlineStr">
-        <is>
-          <t>370711S</t>
-        </is>
-      </c>
-      <c r="DW1" s="1" t="inlineStr">
-        <is>
-          <t>AC350503</t>
-        </is>
-      </c>
-      <c r="DX1" s="1" t="inlineStr">
-        <is>
-          <t>AC387090</t>
-        </is>
-      </c>
-      <c r="DY1" s="1" t="inlineStr">
-        <is>
-          <t>AC355409</t>
-        </is>
-      </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>370501.0</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
-        <is>
-          <t>AC370403</t>
-        </is>
-      </c>
-      <c r="EB1" s="1" t="inlineStr">
-        <is>
-          <t>370466C</t>
-        </is>
-      </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>AC612000</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
-        <is>
-          <t>AC355111</t>
-        </is>
-      </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>376480A</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>AC370442</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
-        <is>
-          <t>AC390003</t>
-        </is>
-      </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>378858S</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
-        <is>
-          <t>AC20113</t>
-        </is>
-      </c>
-      <c r="EJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC378720</t>
-        </is>
-      </c>
-      <c r="EK1" s="1" t="inlineStr">
-        <is>
-          <t>AC40016</t>
-        </is>
-      </c>
-      <c r="EL1" s="1" t="inlineStr">
-        <is>
-          <t>339099B</t>
-        </is>
-      </c>
-      <c r="EM1" s="1" t="inlineStr">
-        <is>
-          <t>AC388130</t>
-        </is>
-      </c>
-      <c r="EN1" s="1" t="inlineStr">
-        <is>
-          <t>370505A</t>
-        </is>
-      </c>
-      <c r="EO1" s="1" t="inlineStr">
-        <is>
-          <t>AC709999</t>
-        </is>
-      </c>
-      <c r="EP1" s="1" t="inlineStr">
-        <is>
-          <t>370737Z</t>
-        </is>
-      </c>
-      <c r="EQ1" s="1" t="inlineStr">
-        <is>
-          <t>377121S</t>
-        </is>
-      </c>
-      <c r="ER1" s="1" t="inlineStr">
-        <is>
-          <t>370488T</t>
-        </is>
-      </c>
-      <c r="ES1" s="1" t="inlineStr">
-        <is>
-          <t>370403S</t>
-        </is>
-      </c>
-      <c r="ET1" s="1" t="inlineStr">
-        <is>
-          <t>AC613000</t>
-        </is>
-      </c>
-      <c r="EU1" s="1" t="inlineStr">
-        <is>
-          <t>AC339160</t>
-        </is>
-      </c>
-      <c r="EV1" s="1" t="inlineStr">
-        <is>
-          <t>370407.0</t>
-        </is>
-      </c>
-      <c r="EW1" s="1" t="inlineStr">
-        <is>
-          <t>AC388170</t>
-        </is>
-      </c>
-      <c r="EX1" s="1" t="inlineStr">
-        <is>
-          <t>AC350507</t>
-        </is>
-      </c>
-      <c r="EY1" s="1" t="inlineStr">
-        <is>
-          <t>337419C</t>
-        </is>
-      </c>
-      <c r="EZ1" s="1" t="inlineStr">
-        <is>
-          <t>AC370111</t>
-        </is>
-      </c>
-      <c r="FA1" s="1" t="inlineStr">
-        <is>
-          <t>370488S</t>
-        </is>
-      </c>
-      <c r="FB1" s="1" t="inlineStr">
-        <is>
-          <t>AC370437</t>
-        </is>
-      </c>
-      <c r="FC1" s="1" t="inlineStr">
-        <is>
-          <t>370407C</t>
-        </is>
-      </c>
-      <c r="FD1" s="1" t="inlineStr">
-        <is>
-          <t>370489S</t>
-        </is>
-      </c>
-      <c r="FE1" s="1" t="inlineStr">
-        <is>
-          <t>378453S</t>
-        </is>
-      </c>
-      <c r="FF1" s="1" t="inlineStr">
-        <is>
-          <t>AC370421</t>
-        </is>
-      </c>
-      <c r="FG1" s="1" t="inlineStr">
-        <is>
-          <t>AC370116</t>
-        </is>
-      </c>
-      <c r="FH1" s="1" t="inlineStr">
-        <is>
-          <t>AC372417</t>
-        </is>
-      </c>
-      <c r="FI1" s="1" t="inlineStr">
-        <is>
-          <t>AC356134</t>
-        </is>
-      </c>
-      <c r="FJ1" s="1" t="inlineStr">
-        <is>
-          <t>AC10307</t>
-        </is>
-      </c>
-      <c r="FK1" s="1" t="inlineStr">
-        <is>
-          <t>370707S</t>
-        </is>
-      </c>
-      <c r="FL1" s="1" t="inlineStr">
-        <is>
-          <t>AC375518</t>
-        </is>
-      </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>AC686405</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
-        <is>
-          <t>379000A</t>
-        </is>
-      </c>
-      <c r="FO1" s="1" t="inlineStr">
-        <is>
-          <t>AC370440</t>
-        </is>
-      </c>
-      <c r="FP1" s="1" t="inlineStr">
-        <is>
-          <t>AC375004</t>
-        </is>
-      </c>
-      <c r="FQ1" s="1" t="inlineStr">
-        <is>
-          <t>AC370604</t>
-        </is>
-      </c>
-      <c r="FR1" s="1" t="inlineStr">
-        <is>
-          <t>AC619600</t>
-        </is>
-      </c>
-      <c r="FS1" s="1" t="inlineStr">
-        <is>
-          <t>AC337451</t>
-        </is>
-      </c>
-      <c r="FT1" s="1" t="inlineStr">
-        <is>
-          <t>AC370711</t>
-        </is>
-      </c>
-      <c r="FU1" s="1" t="inlineStr">
-        <is>
-          <t>376400.0</t>
-        </is>
-      </c>
-      <c r="FV1" s="1" t="inlineStr">
-        <is>
-          <t>370488E</t>
-        </is>
-      </c>
-      <c r="FW1" s="1" t="inlineStr">
-        <is>
-          <t>AC386042</t>
-        </is>
-      </c>
-      <c r="FX1" s="1" t="inlineStr">
-        <is>
-          <t>375138A</t>
-        </is>
-      </c>
-      <c r="FY1" s="1" t="inlineStr">
-        <is>
-          <t>339171A</t>
-        </is>
-      </c>
-      <c r="FZ1" s="1" t="inlineStr">
-        <is>
-          <t>370443S</t>
-        </is>
-      </c>
-      <c r="GA1" s="1" t="inlineStr">
-        <is>
-          <t>370426S</t>
-        </is>
-      </c>
-      <c r="GB1" s="1" t="inlineStr">
-        <is>
-          <t>AC387002</t>
-        </is>
-      </c>
-      <c r="GC1" s="1" t="inlineStr">
-        <is>
-          <t>370401C</t>
-        </is>
-      </c>
-      <c r="GD1" s="1" t="inlineStr">
-        <is>
-          <t>AC370701</t>
-        </is>
-      </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>375003A</t>
-        </is>
-      </c>
-      <c r="GF1" s="1" t="inlineStr">
-        <is>
-          <t>378453A</t>
-        </is>
-      </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>378609K</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
-        <is>
-          <t>AC710290</t>
-        </is>
-      </c>
-      <c r="GI1" s="1" t="inlineStr">
-        <is>
-          <t>AC10107</t>
-        </is>
-      </c>
-      <c r="GJ1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="GK1" s="1" t="inlineStr">
-        <is>
-          <t>AC370402</t>
-        </is>
-      </c>
-      <c r="GL1" s="1" t="inlineStr">
-        <is>
-          <t>339488A</t>
-        </is>
-      </c>
-      <c r="GM1" s="1" t="inlineStr">
-        <is>
-          <t>370136A</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="CF2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG2" s="2" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="CP2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ2" s="2" t="n">
         <v>0</v>
@@ -2222,41 +2222,41 @@
         <v>0</v>
       </c>
       <c r="BJ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BK3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="BV3" s="2" t="n">
         <v>0</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="CF3" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG3" s="2" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="CP3" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CQ3" s="2" t="n">
         <v>0</v>
@@ -2649,251 +2649,251 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ4" s="2" t="n">
+      <c r="BV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF4" s="2" t="n">
-        <v>0</v>
-      </c>
       <c r="CG4" s="2" t="n">
         <v>0</v>
       </c>
@@ -2922,160 +2922,160 @@
         <v>0</v>
       </c>
       <c r="CP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EJ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO4" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="CQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO4" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="EP4" s="2" t="n">
         <v>0</v>
@@ -3253,433 +3253,433 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="2" t="n">
+      <c r="BV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="Z5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ5" s="2" t="n">
+      <c r="CG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DO5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DP5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DQ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DR5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DS5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DU5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DV5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DX5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="DZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EC5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ED5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EG5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EH5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EI5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" s="2" t="n">
+      <c r="EJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EM5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EN5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="EO5" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="CQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DO5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DP5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DQ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DR5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DS5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DT5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DU5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DV5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DW5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DX5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DY5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="DZ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EA5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EB5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EC5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="ED5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EE5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EF5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EG5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EH5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EI5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EJ5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EK5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EL5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EN5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="EO5" s="2" t="n">
-        <v>0</v>
       </c>
       <c r="EP5" s="2" t="n">
         <v>0</v>
